--- a/Case study/Vikor/mcdm.xlsx
+++ b/Case study/Vikor/mcdm.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75198D65-B7BD-4F34-BD7A-8CA574671C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10211978-5AC3-45CE-8EF6-7F3FAE228149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,10 +132,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 4" xfId="1" builtinId="19"/>
@@ -479,7 +479,7 @@
   <dimension ref="D5:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0.30927716640481601</v>
+        <v>8.8525943365128895E-2</v>
       </c>
       <c r="F5" s="1">
-        <v>-2.8346863945158301E-3</v>
+        <v>-1.4589542245943799E-3</v>
       </c>
       <c r="G5" s="1">
-        <v>4.6642340037228218E-2</v>
+        <v>4.9116053092724599E-2</v>
       </c>
       <c r="H5" s="1">
-        <v>7.5386056676041511E-3</v>
+        <v>3.1489210752849899E-3</v>
       </c>
       <c r="I5" s="1">
-        <v>-8.7254506032367792E-3</v>
+        <v>-1.6964319232541101E-3</v>
       </c>
       <c r="J5" s="1">
-        <v>0.62498175089259922</v>
+        <v>0.85605369631901296</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
@@ -534,69 +534,69 @@
       <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>76.900000000000006</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>0.79073099999999996</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>2876.8493000000003</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>0.25850200000000001</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>134.56205</v>
       </c>
-      <c r="J7" s="6">
-        <v>0.40576000000000001</v>
+      <c r="J7" s="5">
+        <v>1.363E-2</v>
       </c>
     </row>
     <row r="8" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>27.7</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>0.85560199999999997</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>1979.9499499999997</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>0.241535</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>116.82447999999999</v>
       </c>
-      <c r="J8" s="6">
-        <v>0.16831000000000002</v>
+      <c r="J8" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="6">
-        <v>72.2</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0.86101700000000003</v>
-      </c>
-      <c r="G9" s="6">
-        <v>2675.1394799999998</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0.22170700000000002</v>
-      </c>
-      <c r="I9" s="6">
-        <v>135.59232</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0.78637999999999997</v>
+      <c r="E9" s="5">
+        <v>96.9</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.74052000000000007</v>
+      </c>
+      <c r="G9" s="5">
+        <v>4606.7493699999995</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.20927000000000001</v>
+      </c>
+      <c r="I9" s="5">
+        <v>133.47863999999998</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="4:10" x14ac:dyDescent="0.25">
@@ -642,8 +642,8 @@
   </cols>
   <sheetData>
     <row r="7" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
